--- a/04.開発/Check_List.xlsx
+++ b/04.開発/Check_List.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\phpprojectgroup1\04.開発\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{470B0064-0BD2-B541-82D6-ADFFD8F7EBA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28300" yWindow="1380" windowWidth="28180" windowHeight="19340" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28305" yWindow="1380" windowWidth="28185" windowHeight="19335" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="4" r:id="rId1"/>
@@ -19,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$N$41</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t>No</t>
   </si>
@@ -100,11 +99,72 @@
     <t>解決
 Solve</t>
   </si>
+  <si>
+    <t>Appointment</t>
+  </si>
+  <si>
+    <t>Can't take an appointment</t>
+  </si>
+  <si>
+    <t>YND</t>
+  </si>
+  <si>
+    <t>4.11.2022</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <t>Can't Do</t>
+  </si>
+  <si>
+    <t>Doctor Lists 
+Appointment Count</t>
+  </si>
+  <si>
+    <t>Can't Change</t>
+  </si>
+  <si>
+    <t>Subscribe New</t>
+  </si>
+  <si>
+    <t>When user click subscribe btn, don't show
+ in admin view</t>
+  </si>
+  <si>
+    <t>Not Working Add 
+Controller (all pages(user + admin))
+(del_flg = 0 err)</t>
+  </si>
+  <si>
+    <t>Daily Msg For User</t>
+  </si>
+  <si>
+    <t>4.11.2023</t>
+  </si>
+  <si>
+    <t>4.11.2024</t>
+  </si>
+  <si>
+    <t>4.11.2025</t>
+  </si>
+  <si>
+    <t>4.11.2026</t>
+  </si>
+  <si>
+    <t>4.11.2027</t>
+  </si>
+  <si>
+    <t>Can't Do, changed acc's pwd in localhost and cannot log in hosting with both previous pwd and current pwd.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -644,18 +704,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -715,16 +769,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
@@ -732,10 +781,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_生産計画ED書" xfId="1" xr:uid="{588A7EFC-6AA7-3D4C-9C50-994FE9B4E72A}"/>
+    <cellStyle name="標準_生産計画ED書" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1046,7 +1106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E40D4ED-3391-3747-BD31-F7C7E5818F78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1056,15 +1116,15 @@
       <selection activeCell="C7" sqref="C7:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="5.5" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="43" customHeight="1">
+    <row r="1" spans="1:17" ht="42.95" customHeight="1">
       <c r="A1" s="8"/>
       <c r="B1" s="8"/>
       <c r="C1" s="9"/>
@@ -1087,8 +1147,8 @@
       <c r="A2" s="12"/>
       <c r="N2" s="13"/>
     </row>
-    <row r="4" spans="1:17" ht="17" thickBot="1"/>
-    <row r="5" spans="1:17" ht="17" thickTop="1">
+    <row r="4" spans="1:17" ht="16.5" thickBot="1"/>
+    <row r="5" spans="1:17" ht="16.5" thickTop="1">
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
@@ -1109,70 +1169,70 @@
     <row r="7" spans="1:17" ht="96">
       <c r="A7" s="19"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="21"/>
       <c r="N7" s="19"/>
     </row>
     <row r="8" spans="1:17">
       <c r="B8" s="17"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
       <c r="M8" s="18"/>
     </row>
     <row r="9" spans="1:17">
       <c r="B9" s="17"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="47">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26" t="s">
+    <row r="10" spans="1:17" ht="46.5">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="1:17" ht="17" thickBot="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="30"/>
-    </row>
-    <row r="12" spans="1:17" ht="17" thickTop="1">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="23"/>
+    </row>
+    <row r="11" spans="1:17" ht="16.5" thickBot="1">
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28"/>
+    </row>
+    <row r="12" spans="1:17" ht="16.5" thickTop="1">
       <c r="A12" s="12"/>
       <c r="N12" s="13"/>
     </row>
@@ -1184,47 +1244,47 @@
       <c r="A14" s="12"/>
       <c r="N14" s="13"/>
     </row>
-    <row r="15" spans="1:17" ht="17" thickBot="1">
+    <row r="15" spans="1:17" ht="16.5" thickBot="1">
       <c r="A15" s="12"/>
       <c r="N15" s="13"/>
     </row>
-    <row r="16" spans="1:17" ht="37" customHeight="1">
+    <row r="16" spans="1:17" ht="36.950000000000003" customHeight="1">
       <c r="A16" s="12"/>
-      <c r="E16" s="31" t="s">
+      <c r="E16" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="35"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="33"/>
       <c r="N16" s="13"/>
     </row>
-    <row r="17" spans="1:14" ht="37" customHeight="1">
+    <row r="17" spans="1:14" ht="36.950000000000003" customHeight="1">
       <c r="A17" s="12"/>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="40"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="38"/>
       <c r="N17" s="13"/>
     </row>
-    <row r="18" spans="1:14" ht="37" customHeight="1" thickBot="1">
+    <row r="18" spans="1:14" ht="36.950000000000003" customHeight="1" thickBot="1">
       <c r="A18" s="12"/>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="45"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
       <c r="N18" s="13"/>
     </row>
-    <row r="19" spans="1:14" ht="19" customHeight="1">
+    <row r="19" spans="1:14" ht="18.95" customHeight="1">
       <c r="A19" s="12"/>
       <c r="N19" s="13"/>
     </row>
@@ -1248,50 +1308,50 @@
       <c r="A24" s="12"/>
       <c r="N24" s="13"/>
     </row>
-    <row r="25" spans="1:14" ht="31" customHeight="1">
+    <row r="25" spans="1:14" ht="30.95" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="E25" s="46" t="s">
+      <c r="E25" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="F25" s="46" t="s">
+      <c r="F25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="46" t="s">
+      <c r="H25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I25" s="46" t="s">
+      <c r="I25" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="J25" s="46" t="s">
+      <c r="J25" s="44" t="s">
         <v>7</v>
       </c>
       <c r="N25" s="13"/>
     </row>
     <row r="26" spans="1:14" ht="33">
       <c r="A26" s="12"/>
-      <c r="E26" s="47" t="s">
+      <c r="E26" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+      <c r="J26" s="45"/>
       <c r="N26" s="13"/>
     </row>
     <row r="27" spans="1:14" ht="33">
       <c r="A27" s="12"/>
-      <c r="E27" s="47" t="s">
+      <c r="E27" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="48"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="45"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
       <c r="N27" s="13"/>
     </row>
     <row r="28" spans="1:14">
@@ -1308,129 +1368,127 @@
     </row>
     <row r="31" spans="1:14" ht="39">
       <c r="A31" s="12"/>
-      <c r="B31" s="49"/>
+      <c r="B31" s="47"/>
       <c r="N31" s="13"/>
     </row>
-    <row r="32" spans="1:14" ht="24">
+    <row r="32" spans="1:14" ht="23.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="50"/>
       <c r="N32" s="13"/>
     </row>
     <row r="33" spans="1:14" ht="39">
       <c r="A33" s="12"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="54" t="s">
+      <c r="D33" s="48"/>
+      <c r="E33" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
       <c r="N33" s="13"/>
     </row>
-    <row r="34" spans="1:14" ht="24">
+    <row r="34" spans="1:14" ht="23.25">
       <c r="A34" s="12"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="53"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
       <c r="N34" s="13"/>
     </row>
-    <row r="35" spans="1:14" ht="24">
+    <row r="35" spans="1:14" ht="23.25">
       <c r="A35" s="12"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="52"/>
-      <c r="F35" s="53"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
       <c r="N35" s="13"/>
     </row>
-    <row r="36" spans="1:14" ht="24">
+    <row r="36" spans="1:14" ht="23.25">
       <c r="A36" s="12"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="53"/>
+      <c r="D36" s="48"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
       <c r="N36" s="13"/>
     </row>
-    <row r="37" spans="1:14" ht="24">
+    <row r="37" spans="1:14" ht="23.25">
       <c r="A37" s="12"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
       <c r="N37" s="13"/>
     </row>
     <row r="38" spans="1:14" ht="21">
       <c r="A38" s="12"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="56"/>
+      <c r="K38" s="60"/>
+      <c r="L38" s="60"/>
+      <c r="M38" s="51"/>
       <c r="N38" s="13"/>
     </row>
     <row r="39" spans="1:14" ht="21">
       <c r="A39" s="12"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="56"/>
+      <c r="K39" s="60"/>
+      <c r="L39" s="60"/>
+      <c r="M39" s="51"/>
       <c r="N39" s="13"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="12"/>
       <c r="N40" s="13"/>
     </row>
-    <row r="41" spans="1:14" ht="17" thickBot="1">
-      <c r="A41" s="57"/>
-      <c r="B41" s="58"/>
-      <c r="C41" s="58"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-      <c r="K41" s="58"/>
-      <c r="L41" s="58"/>
-      <c r="M41" s="58"/>
-      <c r="N41" s="59"/>
+    <row r="41" spans="1:14" ht="16.5" thickBot="1">
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="53"/>
+      <c r="E41" s="53"/>
+      <c r="F41" s="53"/>
+      <c r="G41" s="53"/>
+      <c r="H41" s="53"/>
+      <c r="I41" s="53"/>
+      <c r="J41" s="53"/>
+      <c r="K41" s="53"/>
+      <c r="L41" s="53"/>
+      <c r="M41" s="53"/>
+      <c r="N41" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="K39:L39"/>
     <mergeCell ref="C7:L7"/>
     <mergeCell ref="C10:L10"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="E33:J33"/>
     <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="55" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="66">
+    <row r="2" spans="1:7" ht="63">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1449,7 +1507,7 @@
       <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="55" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1458,35 +1516,65 @@
         <f>ROW()-2</f>
         <v>1</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G3" s="4"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" ht="63">
       <c r="A4" s="4">
         <f t="shared" ref="A4:A52" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" ht="105">
       <c r="A5" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7">
@@ -1494,35 +1582,65 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" ht="63">
       <c r="A7" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
+      <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" ht="42">
       <c r="A8" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
+      <c r="B8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7">
@@ -1542,7 +1660,6 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
@@ -2055,6 +2172,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="37" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>